--- a/QA__HW.xlsx
+++ b/QA__HW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="0" windowWidth="30460" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Урок 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="159">
   <si>
     <t>Урок 1. Тестирование. Жизненный цикл разработки ПО. Управление проектами</t>
   </si>
@@ -1156,12 +1156,110 @@
       <t xml:space="preserve">Мануальное, интерфейса, удобство использования, динамичное, безопасности, функциональное </t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Quantity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. 0 (пустое поле)
+2. от 1 до 20 символов
+3. 21 и более
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Full Name длина:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1. &lt; 3 символов
+2. от 3 до 25
+3. более 25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Full Name тип данных:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Латинские буквы
+2.буквы, другой алфавит
+3. цифры
+4. спец. символы
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Address :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1. 0, 100, 101</t>
+    </r>
+  </si>
+  <si>
+    <t>Старт таймера</t>
+  </si>
+  <si>
+    <t>Оплата</t>
+  </si>
+  <si>
+    <t>Отмена после оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Истечения таймера/</t>
+  </si>
+  <si>
+    <t>не оплата</t>
+  </si>
+  <si>
+    <t>Оплата успешна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1295,6 +1393,17 @@
       <sz val="10"/>
       <color theme="5"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1548,10 +1657,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1584,6 +1694,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1595,75 +1729,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1673,80 +1746,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1771,13 +1770,1439 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>949960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2880360" y="6974840"/>
+          <a:ext cx="1234440" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="uk-UA" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>заказ на покупку билета</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="1" cap="none" spc="0">
+            <a:ln w="1905"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="20000"/>
+                    <a:satMod val="200000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="90000"/>
+                    <a:shade val="89000"/>
+                    <a:satMod val="220000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="12000"/>
+                    <a:satMod val="255000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rechteck 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5933440" y="6969760"/>
+          <a:ext cx="1168400" cy="833120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>возврат денежных средств</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="1905"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="20000"/>
+                    <a:satMod val="200000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="90000"/>
+                    <a:shade val="89000"/>
+                    <a:satMod val="220000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="12000"/>
+                    <a:satMod val="255000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870960" y="6532880"/>
+          <a:ext cx="0" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerade Verbindung 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3850640" y="7843520"/>
+          <a:ext cx="0" cy="751840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3850640" y="9458960"/>
+          <a:ext cx="20320" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>294640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4155440" y="7325360"/>
+          <a:ext cx="1706880" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>873760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3769360" y="6289040"/>
+          <a:ext cx="264160" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rechteck 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2860040" y="8610600"/>
+          <a:ext cx="1336040" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="bg-BG" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>клиент оплачивает покупку</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="1" cap="none" spc="0">
+            <a:ln w="1905"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="20000"/>
+                    <a:satMod val="200000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="90000"/>
+                    <a:shade val="89000"/>
+                    <a:satMod val="220000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="12000"/>
+                    <a:satMod val="255000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rechteck 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2875280" y="10165080"/>
+          <a:ext cx="1351280" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>печатается билет</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="1" cap="none" spc="0">
+            <a:ln w="1905"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="20000"/>
+                    <a:satMod val="200000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="90000"/>
+                    <a:shade val="89000"/>
+                    <a:satMod val="220000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="12000"/>
+                    <a:satMod val="255000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rechteck 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953760" y="8534400"/>
+          <a:ext cx="1219200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> бронь отменяется</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="1905"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="20000"/>
+                    <a:satMod val="200000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="90000"/>
+                    <a:shade val="89000"/>
+                    <a:satMod val="220000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="12000"/>
+                    <a:satMod val="255000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>294640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Gewinkelte Verbindung 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4155440" y="7752080"/>
+          <a:ext cx="1767840" cy="1076960"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Oval 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738880" y="11653520"/>
+          <a:ext cx="233680" cy="248920"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Gerade Verbindung 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3850640" y="10982960"/>
+          <a:ext cx="10160" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Gerade Verbindung mit Pfeil 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6746240" y="9448800"/>
+          <a:ext cx="20320" cy="2448560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Gerade Verbindung 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7106920" y="7330440"/>
+          <a:ext cx="604520" cy="5080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>934720</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Gerade Verbindung mit Pfeil 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3972560" y="11777980"/>
+          <a:ext cx="2753360" cy="27940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Gerade Verbindung 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6766560" y="11785600"/>
+          <a:ext cx="965200" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Gerade Verbindung mit Pfeil 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7721600" y="7345680"/>
+          <a:ext cx="20320" cy="4439920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1983,383 +3408,383 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:8" ht="15.75" customHeight="1"/>
@@ -3363,1279 +4788,1272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="12">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="12">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8" s="72" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-    </row>
-    <row r="7" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-    </row>
-    <row r="8" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-    </row>
-    <row r="10" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-    </row>
-    <row r="11" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-    </row>
-    <row r="13" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
-    </row>
-    <row r="14" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-    </row>
-    <row r="15" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-    </row>
-    <row r="16" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="1:8" s="72" customFormat="1" ht="12">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" s="20" customFormat="1" ht="12">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="22" spans="1:8" ht="12">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="12">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="12">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="61" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A26" s="74">
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A26" s="21">
         <v>1</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A27" s="74">
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A27" s="21">
         <v>2</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A28" s="74">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A28" s="21">
         <v>3</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A29" s="74">
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A29" s="21">
         <v>4</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A30" s="74">
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A30" s="21">
         <v>5</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="76" customFormat="1" ht="12">
-      <c r="A31" s="74">
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="12">
+      <c r="A31" s="21">
         <v>6</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="76" customFormat="1" ht="13" customHeight="1">
-      <c r="A32" s="74">
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="13" customHeight="1">
+      <c r="A32" s="21">
         <v>7</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="76" customFormat="1" ht="13" customHeight="1">
-      <c r="A33" s="74">
+    <row r="33" spans="1:5" s="22" customFormat="1" ht="13" customHeight="1">
+      <c r="A33" s="21">
         <v>8</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="76" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A34" s="74">
+    <row r="34" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A34" s="21">
         <v>9</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A35" s="74">
+    <row r="35" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A35" s="21">
         <v>10</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A36" s="74">
+    <row r="36" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A36" s="21">
         <v>11</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="76" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A37" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-    </row>
-    <row r="38" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A38" s="74">
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+    </row>
+    <row r="38" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A38" s="21">
         <v>1</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="76" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A39" s="74">
+    <row r="39" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A39" s="21">
         <v>2</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="76" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A40" s="74">
+    <row r="40" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A40" s="21">
         <v>3</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="76" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A41" s="74">
+    <row r="41" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A41" s="21">
         <v>4</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="76" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A42" s="74">
+    <row r="42" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A42" s="21">
         <v>5</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="76" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A43" s="74">
+    <row r="43" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A43" s="21">
         <v>6</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="76" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A44" s="80" t="s">
+    <row r="44" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A44" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-    </row>
-    <row r="45" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A45" s="74">
+      <c r="B44" s="69"/>
+      <c r="C44" s="70"/>
+    </row>
+    <row r="45" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A45" s="21">
         <v>1</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="76" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A46" s="74">
+    <row r="46" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A46" s="21">
         <v>2</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="76" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A47" s="74">
+    <row r="47" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A47" s="21">
         <v>3</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="87" t="s">
+      <c r="C47" s="55"/>
+      <c r="D47" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="76" customFormat="1" ht="12">
-      <c r="A48" s="74">
+    <row r="48" spans="1:5" s="22" customFormat="1" ht="12">
+      <c r="A48" s="21">
         <v>4</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76" t="s">
+      <c r="C48" s="54"/>
+      <c r="D48" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="74">
+    <row r="49" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="21">
         <v>5</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="86" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="74">
+    <row r="50" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="21">
         <v>6</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76" t="s">
+      <c r="C50" s="54"/>
+      <c r="D50" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="74">
+    <row r="51" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="21">
         <v>7</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76" t="s">
+      <c r="C51" s="54"/>
+      <c r="D51" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="74">
+    <row r="52" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="21">
         <v>8</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76" t="s">
+      <c r="C52" s="54"/>
+      <c r="D52" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="74">
+    <row r="53" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="21">
         <v>9</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76" t="s">
+      <c r="C53" s="54"/>
+      <c r="D53" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="74">
+    <row r="54" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="21">
         <v>10</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76" t="s">
+      <c r="C54" s="54"/>
+      <c r="D54" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="74">
+    <row r="55" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="21">
         <v>11</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="76" t="s">
+      <c r="C55" s="54"/>
+      <c r="D55" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="74">
+    <row r="56" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="21">
         <v>12</v>
       </c>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="86" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="76" t="s">
+      <c r="E56" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="74">
+    <row r="57" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="21">
         <v>13</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="86" t="s">
+      <c r="C57" s="60"/>
+      <c r="D57" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="76" t="s">
+      <c r="E57" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="74">
+    <row r="58" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="21">
         <v>14</v>
       </c>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76" t="s">
+      <c r="C58" s="54"/>
+      <c r="D58" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="74">
+    <row r="59" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="21">
         <v>15</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="86" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="74">
+    <row r="60" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="21">
         <v>16</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="86" t="s">
+      <c r="C60" s="60"/>
+      <c r="D60" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="76" t="s">
+      <c r="E60" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="74">
+    <row r="61" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="21">
         <v>17</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76" t="s">
+      <c r="C61" s="54"/>
+      <c r="D61" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="74">
+    <row r="62" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="21">
         <v>18</v>
       </c>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="75"/>
-      <c r="D62" s="76" t="s">
+      <c r="C62" s="54"/>
+      <c r="D62" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="74">
+    <row r="63" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="21">
         <v>19</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="86" t="s">
+      <c r="C63" s="60"/>
+      <c r="D63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="74">
+    <row r="64" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="21">
         <v>20</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76" t="s">
+      <c r="C64" s="54"/>
+      <c r="D64" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="74">
+    <row r="65" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="21">
         <v>21</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="75"/>
-      <c r="D65" s="76" t="s">
+      <c r="C65" s="54"/>
+      <c r="D65" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="74">
+    <row r="66" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="21">
         <v>22</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="76" t="s">
+      <c r="C66" s="60"/>
+      <c r="D66" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="74">
+    <row r="67" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="21">
         <v>23</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="86" t="s">
+      <c r="C67" s="60"/>
+      <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="76" t="s">
+      <c r="E67" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="74">
+    <row r="68" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="21">
         <v>24</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="76" t="s">
+      <c r="C68" s="54"/>
+      <c r="D68" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="74">
+    <row r="69" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="21">
         <v>25</v>
       </c>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="75"/>
-      <c r="D69" s="88" t="s">
+      <c r="C69" s="54"/>
+      <c r="D69" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="76" t="s">
+      <c r="E69" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="74">
+    <row r="70" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="21">
         <v>26</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="76" t="s">
+      <c r="C70" s="60"/>
+      <c r="D70" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="74">
+    <row r="71" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="21">
         <v>27</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="76" t="s">
+      <c r="C71" s="60"/>
+      <c r="D71" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="74">
+    <row r="72" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="21">
         <v>28</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="88" t="s">
+      <c r="C72" s="60"/>
+      <c r="D72" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="76" t="s">
+      <c r="E72" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="74">
+    <row r="73" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="21">
         <v>29</v>
       </c>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76" t="s">
+      <c r="C73" s="54"/>
+      <c r="D73" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A74" s="74">
+    <row r="74" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="21">
         <v>30</v>
       </c>
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="75"/>
-      <c r="D74" s="86" t="s">
+      <c r="C74" s="54"/>
+      <c r="D74" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="76" t="s">
+      <c r="E74" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="74">
+    <row r="75" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="21">
         <v>31</v>
       </c>
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="86" t="s">
+      <c r="C75" s="60"/>
+      <c r="D75" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="76" t="s">
+      <c r="E75" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="74">
+    <row r="76" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="21">
         <v>32</v>
       </c>
-      <c r="B76" s="85" t="s">
+      <c r="B76" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="86" t="s">
+      <c r="C76" s="60"/>
+      <c r="D76" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E76" s="76" t="s">
+      <c r="E76" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="80" t="s">
+    <row r="77" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="82"/>
-    </row>
-    <row r="78" spans="1:5" s="76" customFormat="1" ht="28" customHeight="1">
-      <c r="A78" s="74">
+      <c r="B77" s="69"/>
+      <c r="C77" s="70"/>
+    </row>
+    <row r="78" spans="1:5" s="22" customFormat="1" ht="28" customHeight="1">
+      <c r="A78" s="21">
         <v>1</v>
       </c>
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76" t="s">
+      <c r="C78" s="54"/>
+      <c r="D78" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="74">
+    <row r="79" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="21">
         <v>2</v>
       </c>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="75"/>
-      <c r="D79" s="76" t="s">
+      <c r="C79" s="54"/>
+      <c r="D79" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="74">
+    <row r="80" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="21">
         <v>3</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="79"/>
-      <c r="D80" s="86" t="s">
+      <c r="C80" s="56"/>
+      <c r="D80" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="76" t="s">
+      <c r="E80" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A81" s="74">
+    <row r="81" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A81" s="21">
         <v>4</v>
       </c>
-      <c r="B81" s="75" t="s">
+      <c r="B81" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="75"/>
-      <c r="D81" s="76" t="s">
+      <c r="C81" s="54"/>
+      <c r="D81" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A82" s="74">
+    <row r="82" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A82" s="21">
         <v>5</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="76" t="s">
+      <c r="C82" s="60"/>
+      <c r="D82" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="74">
+    <row r="83" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A83" s="21">
         <v>6</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="78"/>
-      <c r="D83" s="76" t="s">
+      <c r="C83" s="60"/>
+      <c r="D83" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="74">
+    <row r="84" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="21">
         <v>7</v>
       </c>
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="78"/>
-      <c r="D84" s="76" t="s">
+      <c r="C84" s="60"/>
+      <c r="D84" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="74">
+    <row r="85" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="21">
         <v>8</v>
       </c>
-      <c r="B85" s="85" t="s">
+      <c r="B85" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="78"/>
-      <c r="D85" s="76" t="s">
+      <c r="C85" s="60"/>
+      <c r="D85" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="74">
+    <row r="86" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="21">
         <v>9</v>
       </c>
-      <c r="B86" s="85" t="s">
+      <c r="B86" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="78"/>
-      <c r="D86" s="86" t="s">
+      <c r="C86" s="60"/>
+      <c r="D86" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="76" t="s">
+      <c r="E86" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="74">
+    <row r="87" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A87" s="21">
         <v>10</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="78"/>
-      <c r="D87" s="76" t="s">
+      <c r="C87" s="60"/>
+      <c r="D87" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="74">
+    <row r="88" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A88" s="21">
         <v>11</v>
       </c>
-      <c r="B88" s="85" t="s">
+      <c r="B88" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="78"/>
-      <c r="D88" s="86" t="s">
+      <c r="C88" s="60"/>
+      <c r="D88" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="76" t="s">
+      <c r="E88" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="69" t="s">
+    <row r="89" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A89" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="64"/>
-    </row>
-    <row r="90" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="58">
+      <c r="B89" s="72"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A90" s="15">
         <v>1</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="63" t="s">
+      <c r="C90" s="58"/>
+      <c r="D90" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="58">
+    <row r="91" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A91" s="15">
         <v>2</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="58">
+    <row r="92" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A92" s="15">
         <v>3</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="56" t="s">
+      <c r="C92" s="58"/>
+      <c r="D92" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A93" s="58">
+    <row r="93" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A93" s="15">
         <v>4</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="57" t="s">
+      <c r="C93" s="67"/>
+      <c r="D93" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="58">
+    <row r="94" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A94" s="15">
         <v>5</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="66"/>
-      <c r="D94" s="87" t="s">
+      <c r="C94" s="65"/>
+      <c r="D94" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A95" s="58">
+    <row r="95" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A95" s="15">
         <v>6</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="87" t="s">
+      <c r="C95" s="65"/>
+      <c r="D95" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="58">
+    <row r="96" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A96" s="15">
         <v>7</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="56" t="s">
+      <c r="C96" s="65"/>
+      <c r="D96" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A97" s="58">
+    <row r="97" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A97" s="15">
         <v>8</v>
       </c>
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="57" t="s">
+      <c r="C97" s="67"/>
+      <c r="D97" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="58">
+    <row r="98" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A98" s="15">
         <v>9</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="87" t="s">
+      <c r="C98" s="65"/>
+      <c r="D98" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="58">
+    <row r="99" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="15">
         <v>10</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="68"/>
-      <c r="D99" s="87" t="s">
+      <c r="C99" s="63"/>
+      <c r="D99" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="E99" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="58">
+    <row r="100" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="15">
         <v>11</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="56" t="s">
+      <c r="C100" s="67"/>
+      <c r="D100" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="58">
+    <row r="101" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A101" s="15">
         <v>12</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="57" t="s">
+      <c r="C101" s="67"/>
+      <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="58">
+    <row r="102" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A102" s="15">
         <v>13</v>
       </c>
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="87" t="s">
+      <c r="C102" s="65"/>
+      <c r="D102" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="58">
+    <row r="103" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A103" s="15">
         <v>14</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="87" t="s">
+      <c r="C103" s="65"/>
+      <c r="D103" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="58">
+    <row r="104" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A104" s="15">
         <v>15</v>
       </c>
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="59"/>
-      <c r="D104" s="56" t="s">
+      <c r="C104" s="58"/>
+      <c r="D104" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1">
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1">
-      <c r="C112" s="55"/>
+      <c r="C112" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
@@ -4644,17 +6062,20 @@
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B94:C94"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -4679,6 +6100,7 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
@@ -4700,6 +6122,9 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
@@ -4751,178 +6176,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -4935,26 +6360,26 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -4983,96 +6408,96 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="26">
+      <c r="A22" s="75">
         <v>1</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
@@ -5101,96 +6526,96 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="26">
+      <c r="A32" s="75">
         <v>2</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
@@ -5219,96 +6644,96 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="26">
+      <c r="A42" s="75">
         <v>3</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -5337,96 +6762,96 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="26">
+      <c r="A52" s="75">
         <v>4</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="27"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="27"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="27"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="27"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="28"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
@@ -5455,96 +6880,96 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="27"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="27"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="27"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="27"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="27"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="76"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="27"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="27"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="28"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="A70" s="77"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="72" spans="1:8" ht="15.75" customHeight="1"/>
@@ -6525,378 +7950,782 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+    </row>
+    <row r="9" spans="1:8" ht="12">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+    </row>
+    <row r="10" spans="1:8" ht="12">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="52" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="55.5" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="D28" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="E31" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="111"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="106"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="111"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="106"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="106"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="106"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="106"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="106"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="106"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="106"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="106"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="106"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="106"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="106"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="106"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="106"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="106"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="106"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="106"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="106"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="106"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="110"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="110"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="110"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="110"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="110"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="110"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="110"/>
+      <c r="H71" s="110"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7818,9 +9647,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="A24:H25"/>
-    <mergeCell ref="A26:H30"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:H4"/>
     <mergeCell ref="A5:H9"/>
@@ -7830,6 +9661,8 @@
     <mergeCell ref="A19:H23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7857,41 +9690,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
@@ -7906,135 +9739,135 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="36">
+      <c r="A4" s="90">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
@@ -8049,135 +9882,135 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
+      <c r="A15" s="90">
         <v>2</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="37"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
@@ -8192,299 +10025,299 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="36">
+      <c r="A26" s="90">
         <v>3</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="95"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="92"/>
+      <c r="D31" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
@@ -9858,518 +11691,518 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>

--- a/QA__HW.xlsx
+++ b/QA__HW.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Урок 1" sheetId="1" r:id="rId1"/>
     <sheet name="Урок 2" sheetId="2" r:id="rId2"/>
     <sheet name="Урок 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Урок 4" sheetId="4" r:id="rId4"/>
+    <sheet name="10.08" sheetId="4" r:id="rId4"/>
     <sheet name="Урок 5" sheetId="5" r:id="rId5"/>
     <sheet name="Урок 6" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -1718,6 +1718,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1736,6 +1749,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,61 +1839,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,11 +1853,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1853,9 +1872,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1874,21 +1890,21 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,8 +1914,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,22 +1923,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3415,376 +3415,376 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:8" ht="15.75" customHeight="1"/>
@@ -4788,238 +4788,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="12">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="12">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" s="20" customFormat="1" ht="12">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="22" spans="1:8" ht="12">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="12">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="12">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="16" t="s">
         <v>6</v>
       </c>
@@ -5031,10 +5031,10 @@
       <c r="A26" s="21">
         <v>1</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="22" t="s">
         <v>41</v>
       </c>
@@ -5043,10 +5043,10 @@
       <c r="A27" s="21">
         <v>2</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="22" t="s">
         <v>41</v>
       </c>
@@ -5055,10 +5055,10 @@
       <c r="A28" s="21">
         <v>3</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="22" t="s">
         <v>45</v>
       </c>
@@ -5070,10 +5070,10 @@
       <c r="A29" s="21">
         <v>4</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="22" t="s">
         <v>41</v>
       </c>
@@ -5082,10 +5082,10 @@
       <c r="A30" s="21">
         <v>5</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="22" t="s">
         <v>41</v>
       </c>
@@ -5094,10 +5094,10 @@
       <c r="A31" s="21">
         <v>6</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="22" t="s">
         <v>41</v>
       </c>
@@ -5106,10 +5106,10 @@
       <c r="A32" s="21">
         <v>7</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="22" t="s">
         <v>41</v>
       </c>
@@ -5118,10 +5118,10 @@
       <c r="A33" s="21">
         <v>8</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="22" t="s">
         <v>41</v>
       </c>
@@ -5130,10 +5130,10 @@
       <c r="A34" s="21">
         <v>9</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="22" t="s">
         <v>41</v>
       </c>
@@ -5142,10 +5142,10 @@
       <c r="A35" s="21">
         <v>10</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="22" t="s">
         <v>41</v>
       </c>
@@ -5166,20 +5166,20 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="22" customFormat="1" ht="12">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
     </row>
     <row r="38" spans="1:5" s="22" customFormat="1" ht="12">
       <c r="A38" s="21">
         <v>1</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="55"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22" t="s">
         <v>41</v>
       </c>
@@ -5188,10 +5188,10 @@
       <c r="A39" s="21">
         <v>2</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22" t="s">
         <v>45</v>
       </c>
@@ -5203,10 +5203,10 @@
       <c r="A40" s="21">
         <v>3</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="22" t="s">
         <v>41</v>
       </c>
@@ -5215,10 +5215,10 @@
       <c r="A41" s="21">
         <v>4</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="22" t="s">
         <v>45</v>
       </c>
@@ -5230,10 +5230,10 @@
       <c r="A42" s="21">
         <v>5</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="55"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="22" t="s">
         <v>41</v>
       </c>
@@ -5242,10 +5242,10 @@
       <c r="A43" s="21">
         <v>6</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="22" t="s">
         <v>45</v>
       </c>
@@ -5254,20 +5254,20 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="22" customFormat="1" ht="12">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="1:5" s="22" customFormat="1" ht="12">
       <c r="A45" s="21">
         <v>1</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="55"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="22" t="s">
         <v>41</v>
       </c>
@@ -5276,10 +5276,10 @@
       <c r="A46" s="21">
         <v>2</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="55"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="22" t="s">
         <v>41</v>
       </c>
@@ -5288,10 +5288,10 @@
       <c r="A47" s="21">
         <v>3</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="55"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="24" t="s">
         <v>111</v>
       </c>
@@ -5303,10 +5303,10 @@
       <c r="A48" s="21">
         <v>4</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="22" t="s">
         <v>41</v>
       </c>
@@ -5315,10 +5315,10 @@
       <c r="A49" s="21">
         <v>5</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="23" t="s">
         <v>45</v>
       </c>
@@ -5330,10 +5330,10 @@
       <c r="A50" s="21">
         <v>6</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="22" t="s">
         <v>41</v>
       </c>
@@ -5342,10 +5342,10 @@
       <c r="A51" s="21">
         <v>7</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="22" t="s">
         <v>41</v>
       </c>
@@ -5354,10 +5354,10 @@
       <c r="A52" s="21">
         <v>8</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="22" t="s">
         <v>41</v>
       </c>
@@ -5366,10 +5366,10 @@
       <c r="A53" s="21">
         <v>9</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="22" t="s">
         <v>41</v>
       </c>
@@ -5378,10 +5378,10 @@
       <c r="A54" s="21">
         <v>10</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="22" t="s">
         <v>41</v>
       </c>
@@ -5390,10 +5390,10 @@
       <c r="A55" s="21">
         <v>11</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="22" t="s">
         <v>41</v>
       </c>
@@ -5402,10 +5402,10 @@
       <c r="A56" s="21">
         <v>12</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="23" t="s">
         <v>45</v>
       </c>
@@ -5417,10 +5417,10 @@
       <c r="A57" s="21">
         <v>13</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="23" t="s">
         <v>45</v>
       </c>
@@ -5432,10 +5432,10 @@
       <c r="A58" s="21">
         <v>14</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="54"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="22" t="s">
         <v>41</v>
       </c>
@@ -5444,10 +5444,10 @@
       <c r="A59" s="21">
         <v>15</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="23" t="s">
         <v>45</v>
       </c>
@@ -5459,10 +5459,10 @@
       <c r="A60" s="21">
         <v>16</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="23" t="s">
         <v>45</v>
       </c>
@@ -5474,10 +5474,10 @@
       <c r="A61" s="21">
         <v>17</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="22" t="s">
         <v>41</v>
       </c>
@@ -5486,10 +5486,10 @@
       <c r="A62" s="21">
         <v>18</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="54"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="22" t="s">
         <v>41</v>
       </c>
@@ -5498,10 +5498,10 @@
       <c r="A63" s="21">
         <v>19</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="23" t="s">
         <v>45</v>
       </c>
@@ -5513,10 +5513,10 @@
       <c r="A64" s="21">
         <v>20</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="22" t="s">
         <v>41</v>
       </c>
@@ -5525,10 +5525,10 @@
       <c r="A65" s="21">
         <v>21</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="22" t="s">
         <v>41</v>
       </c>
@@ -5537,10 +5537,10 @@
       <c r="A66" s="21">
         <v>22</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="60"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="22" t="s">
         <v>41</v>
       </c>
@@ -5549,10 +5549,10 @@
       <c r="A67" s="21">
         <v>23</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="60"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="23" t="s">
         <v>45</v>
       </c>
@@ -5564,10 +5564,10 @@
       <c r="A68" s="21">
         <v>24</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="54"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="22" t="s">
         <v>41</v>
       </c>
@@ -5576,10 +5576,10 @@
       <c r="A69" s="21">
         <v>25</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="25" t="s">
         <v>45</v>
       </c>
@@ -5591,10 +5591,10 @@
       <c r="A70" s="21">
         <v>26</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="60"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="22" t="s">
         <v>41</v>
       </c>
@@ -5603,10 +5603,10 @@
       <c r="A71" s="21">
         <v>27</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="22" t="s">
         <v>41</v>
       </c>
@@ -5615,10 +5615,10 @@
       <c r="A72" s="21">
         <v>28</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="25" t="s">
         <v>45</v>
       </c>
@@ -5630,10 +5630,10 @@
       <c r="A73" s="21">
         <v>29</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="22" t="s">
         <v>41</v>
       </c>
@@ -5642,10 +5642,10 @@
       <c r="A74" s="21">
         <v>30</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="23" t="s">
         <v>45</v>
       </c>
@@ -5657,10 +5657,10 @@
       <c r="A75" s="21">
         <v>31</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="23" t="s">
         <v>143</v>
       </c>
@@ -5672,10 +5672,10 @@
       <c r="A76" s="21">
         <v>32</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="60"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="23" t="s">
         <v>45</v>
       </c>
@@ -5684,20 +5684,20 @@
       </c>
     </row>
     <row r="77" spans="1:5" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="69"/>
-      <c r="C77" s="70"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
     </row>
     <row r="78" spans="1:5" s="22" customFormat="1" ht="28" customHeight="1">
       <c r="A78" s="21">
         <v>1</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="22" t="s">
         <v>41</v>
       </c>
@@ -5706,10 +5706,10 @@
       <c r="A79" s="21">
         <v>2</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="22" t="s">
         <v>41</v>
       </c>
@@ -5733,10 +5733,10 @@
       <c r="A81" s="21">
         <v>4</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="54"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="22" t="s">
         <v>41</v>
       </c>
@@ -5745,10 +5745,10 @@
       <c r="A82" s="21">
         <v>5</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="B82" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="60"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="22" t="s">
         <v>41</v>
       </c>
@@ -5757,10 +5757,10 @@
       <c r="A83" s="21">
         <v>6</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="60"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="22" t="s">
         <v>41</v>
       </c>
@@ -5769,10 +5769,10 @@
       <c r="A84" s="21">
         <v>7</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="60"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="22" t="s">
         <v>41</v>
       </c>
@@ -5781,10 +5781,10 @@
       <c r="A85" s="21">
         <v>8</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="60"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="22" t="s">
         <v>41</v>
       </c>
@@ -5793,10 +5793,10 @@
       <c r="A86" s="21">
         <v>9</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="60"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="23" t="s">
         <v>45</v>
       </c>
@@ -5808,10 +5808,10 @@
       <c r="A87" s="21">
         <v>10</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="60"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="22" t="s">
         <v>41</v>
       </c>
@@ -5820,10 +5820,10 @@
       <c r="A88" s="21">
         <v>11</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="B88" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="60"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="23" t="s">
         <v>45</v>
       </c>
@@ -5832,21 +5832,21 @@
       </c>
     </row>
     <row r="89" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="71" t="s">
+      <c r="A89" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="72"/>
-      <c r="C89" s="73"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="19"/>
     </row>
     <row r="90" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="15">
         <v>1</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="58"/>
+      <c r="C90" s="48"/>
       <c r="D90" s="18" t="s">
         <v>41</v>
       </c>
@@ -5866,10 +5866,10 @@
       <c r="A92" s="15">
         <v>3</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="58"/>
+      <c r="C92" s="48"/>
       <c r="D92" s="13" t="s">
         <v>41</v>
       </c>
@@ -5878,10 +5878,10 @@
       <c r="A93" s="15">
         <v>4</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="67"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="14" t="s">
         <v>45</v>
       </c>
@@ -5893,10 +5893,10 @@
       <c r="A94" s="15">
         <v>5</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="24" t="s">
         <v>111</v>
       </c>
@@ -5908,10 +5908,10 @@
       <c r="A95" s="15">
         <v>6</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="65"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="24" t="s">
         <v>111</v>
       </c>
@@ -5923,10 +5923,10 @@
       <c r="A96" s="15">
         <v>7</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="13" t="s">
         <v>41</v>
       </c>
@@ -5935,10 +5935,10 @@
       <c r="A97" s="15">
         <v>8</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="67"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="14" t="s">
         <v>45</v>
       </c>
@@ -5950,10 +5950,10 @@
       <c r="A98" s="15">
         <v>9</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="24" t="s">
         <v>111</v>
       </c>
@@ -5965,10 +5965,10 @@
       <c r="A99" s="15">
         <v>10</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="63"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="24" t="s">
         <v>111</v>
       </c>
@@ -5980,10 +5980,10 @@
       <c r="A100" s="15">
         <v>11</v>
       </c>
-      <c r="B100" s="67" t="s">
+      <c r="B100" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C100" s="67"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="13" t="s">
         <v>41</v>
       </c>
@@ -5992,10 +5992,10 @@
       <c r="A101" s="15">
         <v>12</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="67"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
@@ -6007,10 +6007,10 @@
       <c r="A102" s="15">
         <v>13</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="65"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="24" t="s">
         <v>111</v>
       </c>
@@ -6022,10 +6022,10 @@
       <c r="A103" s="15">
         <v>14</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C103" s="65"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="24" t="s">
         <v>111</v>
       </c>
@@ -6037,45 +6037,70 @@
       <c r="A104" s="15">
         <v>15</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="58"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1">
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1">
       <c r="C112" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A5:H19"/>
+    <mergeCell ref="A22:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -6092,53 +6117,28 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A5:H19"/>
-    <mergeCell ref="A22:H23"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -6176,178 +6176,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -6360,26 +6360,26 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -6408,96 +6408,96 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="75">
+      <c r="A22" s="81">
         <v>1</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
@@ -6526,96 +6526,96 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="75">
+      <c r="A32" s="81">
         <v>2</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="76"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
@@ -6644,96 +6644,96 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="75">
+      <c r="A42" s="81">
         <v>3</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="76"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="76"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="76"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="76"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="76"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6762,96 +6762,96 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="75">
+      <c r="A52" s="81">
         <v>4</v>
       </c>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="76"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="76"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="76"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="76"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="76"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="76"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="76"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
@@ -6880,96 +6880,96 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="76"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="76"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="77"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="72" spans="1:8" ht="15.75" customHeight="1"/>
@@ -7900,6 +7900,29 @@
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H17"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="D62:D70"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="D52:D60"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B62:B70"/>
     <mergeCell ref="G52:G60"/>
     <mergeCell ref="G62:G70"/>
     <mergeCell ref="H62:H70"/>
@@ -7910,29 +7933,6 @@
     <mergeCell ref="G42:G50"/>
     <mergeCell ref="H42:H50"/>
     <mergeCell ref="H52:H60"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="D62:D70"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="D52:D60"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H17"/>
-    <mergeCell ref="A19:H20"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7950,775 +7950,775 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:8" ht="12">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:8" ht="12">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="52" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="55.5" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="D28" s="106" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="E31" s="111" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="E31" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="85" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="106"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="111" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="106"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="106"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="106"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="106"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="106"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="106"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="106"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="106"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="106"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="106"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="106"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="106"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="106"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="106"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="106"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="106"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="110"/>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="110"/>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="110"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="110"/>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="110"/>
-      <c r="B70" s="110"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="110"/>
-      <c r="H70" s="110"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A71" s="110"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
-      <c r="G71" s="110"/>
-      <c r="H71" s="110"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A72" s="110"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="110"/>
-      <c r="H72" s="110"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A73" s="110"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="110"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A74" s="110"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110"/>
-      <c r="H74" s="110"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:8" ht="15.75" customHeight="1"/>
@@ -9690,41 +9690,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
@@ -9739,135 +9739,135 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="96">
         <v>1</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="95"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="94" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="99" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
@@ -9882,135 +9882,135 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="90">
+      <c r="A15" s="96">
         <v>2</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="95"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="96" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="93" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="94" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="99" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="11" t="s">
         <v>23</v>
       </c>
@@ -10025,299 +10025,299 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="90">
+      <c r="A26" s="96">
         <v>3</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="95"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="76"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="94" t="s">
+      <c r="C31" s="100"/>
+      <c r="D31" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="36"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="36"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
@@ -11624,25 +11624,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="I15:I24"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E13"/>
+    <mergeCell ref="A39:H53"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E35"/>
+    <mergeCell ref="A37:H38"/>
     <mergeCell ref="I26:I35"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
@@ -11659,16 +11650,25 @@
     <mergeCell ref="D26:E30"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E19"/>
-    <mergeCell ref="A39:H53"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="B26:C28"/>
-    <mergeCell ref="G26:G35"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E35"/>
-    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E13"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="I15:I24"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G15:G24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11691,518 +11691,518 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
